--- a/CSDL.xlsx
+++ b/CSDL.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,6 +434,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>ec1</t>
@@ -452,11 +457,16 @@
       <c r="E1" s="1" t="inlineStr">
         <is>
           <t>ec4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>allowed</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>Quy</t>
         </is>
@@ -480,10 +490,13 @@
         <is>
           <t>{"value": [-0.024549752473831177, 0.08529624342918396, 0.11157458275556564, 0.03340911120176315, -0.01594538986682892, -0.02731214463710785, -0.005735786631703377, -0.1638393998146057, 0.07993903756141663, -0.07168740034103394, 0.2262757420539856, -0.03380129486322403, -0.19118137657642365, -0.09063006937503815, -0.009508001618087292, 0.1643008589744568, -0.1724124550819397, -0.1318407952785492, -0.0675286203622818, 0.002252296544611454, 0.04725077748298645, 0.00807124562561512, 0.09483915567398071, -0.09425695985555649, -0.04986504092812538, -0.31861191987991333, -0.10100658237934113, -0.13293243944644928, 0.07909374684095383, -0.03969123959541321, -0.056022126227617264, -0.021340427920222282, -0.1527053862810135, -0.037803348153829575, 0.06323818862438202, 0.01356036402285099, -0.003834627801552415, -0.04701807722449303, 0.1811974048614502, -0.020683180540800095, -0.16891899704933167, 0.1099671870470047, -0.02897491306066513, 0.18101799488067627, 0.26009953022003174, 0.05123748257756233, 0.036318231374025345, -0.1661091148853302, 0.08651794493198395, -0.14572466909885406, 0.07760252058506012, 0.11175868660211563, 0.10692773014307022, 0.06226509436964989, 0.0416201613843441, -0.07740924507379532, -0.02202814258635044, 0.0856170654296875, -0.12351323664188385, 0.044030483812093735, 0.13087715208530426, -0.02658931538462639, 0.0018157893791794777, -0.06538201123476028, 0.11966568976640701, -0.0008653503027744591, -0.08890698850154877, -0.17206840217113495, 0.11348560452461243, -0.11531412601470947, -0.06874702125787735, 0.0051743462681770325, -0.1639784872531891, -0.14502261579036713, -0.18757173418998718, 0.02704526111483574, 0.40627485513687134, 0.10375861078500748, -0.19495758414268494, 0.042493563145399094, -0.10176018625497818, -0.0029532755725085735, 0.06757207214832306, 0.07846087217330933, 0.03915560245513916, -0.05442362278699875, -0.06314321607351303, -0.038008153438568115, 0.16558551788330078, -0.1228790283203125, -0.02724015899002552, 0.1784740686416626, -0.10980252921581268, 0.04484543949365616, -0.01432859804481268, -0.016462786123156548, -0.05067288130521774, 0.10674550384283066, -0.07043290138244629, -0.08669055253267288, -0.018508169800043106, -0.061858274042606354, 0.03599430248141289, 0.10110071301460266, -0.14916425943374634, 0.13574552536010742, -0.06917010992765427, 0.08467184007167816, 0.09253266453742981, 0.014987427741289139, -0.026756305247545242, -0.026521023362874985, 0.1287614405155182, -0.22670947015285492, 0.248452827334404, 0.21889729797840118, -0.01563435047864914, 0.06642024219036102, 0.040866170078516006, 0.14241182804107666, 0.015971634536981583, 0.07056883722543716, -0.23800639808177948, -0.0579766146838665, 0.022015763446688652, 0.05833696573972702, 0.020705465227365494, 0.03305436298251152]}</t>
         </is>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>Trinh</t>
         </is>
@@ -507,10 +520,13 @@
         <is>
           <t>{"value": [-0.21930673718452454, 0.0725490152835846, 0.0812440812587738, -0.027798330411314964, 0.03250068798661232, -0.09617045521736145, -0.041500575840473175, -0.18620578944683075, 0.1192910224199295, -0.03465196117758751, 0.20011015236377716, -0.09350723773241043, -0.1510770320892334, -0.10306800901889801, -0.0318501777946949, 0.18384508788585663, -0.151195228099823, -0.17272663116455078, -0.08873289823532104, -0.12979955971240997, 0.041682396084070206, 0.05662791058421135, 0.010149485431611538, -0.0590205155313015, -0.04413130134344101, -0.3434205651283264, -0.10954705625772476, -0.1370663344860077, 0.06866329908370972, -0.04201400279998779, 0.022957101464271545, -0.018494155257940292, -0.22404783964157104, -0.02019563689827919, 0.0372329019010067, 0.09392715245485306, -0.020679591223597527, -0.09045472741127014, 0.16008785367012024, 0.018377330154180527, -0.16319437325000763, 0.008542945608496666, 0.08499492704868317, 0.20695079863071442, 0.23946727812290192, 0.006886706687510014, -0.019105345010757446, -0.1105591431260109, 0.0977582037448883, -0.11158384382724762, 0.04575421288609505, 0.16035936772823334, 0.10605621337890625, 0.11923649162054062, 0.07669231295585632, -0.02817346341907978, 0.059723541140556335, 0.03831949084997177, -0.1693626344203949, 0.021188683807849884, 0.1302214115858078, -0.09014855325222015, -0.05868454650044441, -0.035280294716358185, 0.12835989892482758, 0.05979244410991669, -0.08436145633459091, -0.15723805129528046, 0.09405705332756042, -0.13343818485736847, -0.08448250591754913, 0.0219564251601696, -0.12197640538215637, -0.13301970064640045, -0.2853241562843323, 0.03996122628450394, 0.44270947575569153, 0.04096006974577904, -0.14465616643428802, 0.10429543256759644, -0.059092797338962555, -0.09714554250240326, 0.05341015383601189, 0.10737220197916031, -0.044714659452438354, -0.00854303129017353, -0.06710881739854813, -0.02596287429332733, 0.20210105180740356, -0.011617068201303482, -0.021568119525909424, 0.14803993701934814, -0.12856999039649963, 0.011135583743453026, -0.010470850393176079, 0.07970614731311798, -0.0792778879404068, 0.005270658992230892, 0.01754424348473549, -0.13619258999824524, 0.04113897681236267, -0.0897858738899231, -0.009903203696012497, 0.06471307575702667, -0.18428339064121246, 0.1725439727306366, 0.010392933152616024, 0.07184649258852005, 0.01844186708331108, 0.0053010727278888226, 0.027824362739920616, 0.006571935955435038, 0.09153447300195694, -0.17664924263954163, 0.22878359258174896, 0.1797180026769638, -0.02417614683508873, 0.11925547569990158, 0.046954214572906494, 0.12167210131883621, -0.04757869988679886, 0.05870543792843819, -0.16117163002490997, -0.09736988693475723, -0.04642343521118164, 0.10621830821037292, 0.03629499673843384, 0.08470387011766434]}</t>
         </is>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>Valentines</t>
         </is>
@@ -534,6 +550,9 @@
         <is>
           <t>{"value": [-0.09122006595134735, 0.09342867136001587, 0.058579396456480026, 0.004037773236632347, -0.04353703185915947, -0.05603804066777229, -0.02208106778562069, -0.11307229846715927, 0.10838868468999863, -0.046368636190891266, 0.32546132802963257, -0.04573123902082443, -0.18086621165275574, -0.16216884553432465, -0.017950469627976418, 0.17682340741157532, -0.19008424878120422, -0.08909253776073456, -0.032448507845401764, 0.0023735929280519485, 0.07455039024353027, -0.049811653792858124, 0.062077999114990234, 0.09054975211620331, -0.019982241094112396, -0.40221285820007324, -0.09200024604797363, -0.11578327417373657, 0.028332524001598358, -0.05103146657347679, -0.05130903422832489, 0.053285151720047, -0.20968475937843323, -0.04223022982478142, -0.021822094917297363, 0.07774002104997635, -0.04814945533871651, -0.06958985328674316, 0.22735585272312164, -0.07036830484867096, -0.15422970056533813, 0.024754637852311134, 0.011720751412212849, 0.2599160075187683, 0.22470620274543762, 0.030430816113948822, 0.015610055066645145, -0.03168139234185219, 0.09134723991155624, -0.1792004555463791, -0.005552912130951881, 0.13780337572097778, 0.10292212665081024, 0.02648262307047844, -0.012700398452579975, -0.0993640348315239, -0.004846424795687199, 0.03503847122192383, -0.1291409134864807, -0.04136284440755844, -0.015874652191996574, -0.12019285559654236, -0.04582829028367996, -0.08639711886644363, 0.27426260709762573, 0.07647425681352615, -0.11754877120256424, -0.12713775038719177, 0.09341215342283249, -0.1270052194595337, -0.03442934900522232, 0.05617702379822731, -0.22914378345012665, -0.18336811661720276, -0.3244231045246124, 0.07199874520301819, 0.4105019271373749, 0.05533967167139053, -0.1638217717409134, 0.06496559828519821, -0.05304141715168953, 0.004688553512096405, 0.12140673398971558, 0.13219985365867615, 0.006070749834179878, 0.0003548627719283104, -0.1359962522983551, 0.09046263992786407, 0.17190733551979065, -0.13006657361984253, -0.07560180127620697, 0.1932118833065033, -0.06335492432117462, 0.12926995754241943, -0.028308279812335968, -0.020701713860034943, 0.0676150992512703, 0.09228180348873138, -0.12168313562870026, 0.09227991104125977, 0.08108793199062347, 0.024043481796979904, 0.000979504780843854, 0.05404532700777054, -0.11431252956390381, -0.03137315437197685, 0.03309374302625656, 0.059677205979824066, 0.05098973214626312, -0.028013696894049644, -0.2054784893989563, -0.08819150179624557, 0.11267362534999847, -0.27022072672843933, 0.2561907172203064, 0.18783435225486755, 0.019520925357937813, 0.08844482153654099, 0.08966861665248871, 0.04590662196278572, 0.012445414438843727, -0.05316702276468277, -0.20653654634952545, 0.03598390519618988, 0.15563687682151794, 0.040216684341430664, 0.07096481323242188, -0.020667821168899536]}</t>
         </is>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
